--- a/Ressources/Dimensions galaxy.xlsx
+++ b/Ressources/Dimensions galaxy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\ProjetFinBac\Git\QMSat-Satellite-Unity\Ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FAF90DE7-A498-4562-ABC1-F9C6DE3DF0D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CCCE4BBC-B8C1-4164-8CEC-5456B8760D38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" xr2:uid="{35D1F49D-45A6-431C-BBE8-E9F0E8CBE76C}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="E3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +454,10 @@
       <c r="F6">
         <v>3474</v>
       </c>
+      <c r="G6">
+        <f>F6*G5/F5</f>
+        <v>0.24992805755395683</v>
+      </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" s="2" t="s">
